--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-26T15:31:22+00:00</t>
+    <t>2024-12-26T15:51:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-26T15:51:21+00:00</t>
+    <t>2024-12-27T09:52:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-27T09:52:33+00:00</t>
+    <t>2024-12-27T10:08:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-27T10:08:00+00:00</t>
+    <t>2024-12-27T10:41:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-27T10:41:44+00:00</t>
+    <t>2024-12-31T09:40:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-31T09:40:44+00:00</t>
+    <t>2025-01-02T08:06:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T08:06:50+00:00</t>
+    <t>2025-01-02T08:36:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T08:36:24+00:00</t>
+    <t>2025-01-02T08:46:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T08:46:33+00:00</t>
+    <t>2025-01-02T15:15:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T15:15:39+00:00</t>
+    <t>2025-01-03T16:55:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-03T16:55:47+00:00</t>
+    <t>2025-01-07T16:15:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-07T16:15:18+00:00</t>
+    <t>2025-01-09T16:21:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-09T16:21:14+00:00</t>
+    <t>2025-01-11T17:10:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-11T17:10:04+00:00</t>
+    <t>2025-01-11T17:18:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-11T17:18:32+00:00</t>
+    <t>2025-01-11T17:45:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-11T17:45:34+00:00</t>
+    <t>2025-01-12T18:13:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-12T18:13:34+00:00</t>
+    <t>2025-01-20T08:50:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T08:50:22+00:00</t>
+    <t>2025-01-20T08:59:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T08:59:15+00:00</t>
+    <t>2025-01-20T09:27:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T09:27:26+00:00</t>
+    <t>2025-01-20T09:49:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T09:49:22+00:00</t>
+    <t>2025-01-20T10:56:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T10:56:59+00:00</t>
+    <t>2025-01-20T12:54:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T12:54:51+00:00</t>
+    <t>2025-01-20T14:47:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T14:47:39+00:00</t>
+    <t>2025-02-04T14:42:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T14:42:57+00:00</t>
+    <t>2025-02-04T16:03:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T16:03:40+00:00</t>
+    <t>2025-02-04T17:43:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T17:43:23+00:00</t>
+    <t>2025-02-05T08:50:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-05T08:50:29+00:00</t>
+    <t>2025-02-05T09:01:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-05T09:01:25+00:00</t>
+    <t>2025-02-05T09:11:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-05T09:11:38+00:00</t>
+    <t>2025-02-13T15:32:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-13T15:32:59+00:00</t>
+    <t>2025-02-16T15:11:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-16T15:11:19+00:00</t>
+    <t>2025-02-19T13:44:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-19T13:44:58+00:00</t>
+    <t>2025-02-19T14:27:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-19T14:27:03+00:00</t>
+    <t>2025-02-19T14:43:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-19T14:43:26+00:00</t>
+    <t>2025-02-21T12:43:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-21T12:43:39+00:00</t>
+    <t>2025-02-21T14:39:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-21T14:39:11+00:00</t>
+    <t>2025-02-21T15:02:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-21T15:02:48+00:00</t>
+    <t>2025-02-21T15:30:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-21T15:30:48+00:00</t>
+    <t>2025-02-24T10:42:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-24T10:42:42+00:00</t>
+    <t>2025-02-24T15:51:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5267" uniqueCount="890">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5605" uniqueCount="917">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-09T16:24:06+00:00</t>
+    <t>2025-04-10T12:28:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2175,10 +2175,33 @@
     <t>The amount of therapeutic or other substance given at one administration event.</t>
   </si>
   <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t>Dosage.doseAndRate.dose[x]</t>
   </si>
   <si>
     <t>RXO-2, RXE-3</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.doseAndRate.dose[x]:doseRange</t>
+  </si>
+  <si>
+    <t>doseRange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Range {https://hl7.fr/fhir/fr/medication/StructureDefinition/FrRangeMedication}
+</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.doseAndRate.dose[x]:doseQuantity</t>
+  </si>
+  <si>
+    <t>doseQuantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity {https://hl7.fr/fhir/fr/medication/StructureDefinition/FrSimpleQuantityMedication}
+</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction.doseAndRate.rate[x]</t>
@@ -2191,7 +2214,7 @@
     <t>Amount of medication per unit of time</t>
   </si>
   <si>
-    <t>Amount of medication per unit of time.</t>
+    <t>Amount of medication per unit of time. Using a ratio, the denominator SHALL be a quantity of time. Using a simple quantity the UCUM unit SHALL be a unit of rate.</t>
   </si>
   <si>
     <t>It is possible to supply both a rate and a doseQuantity to provide full details about how the medication is to be administered and supplied. If the rate is intended to change over time, depending on local rules/regulations, each change should be captured as a new version of the MedicationRequest with an updated rate, or captured with a new MedicationRequest with the new rate.@@ -2211,6 +2234,31 @@
     <t>RXE22, RXE23, RXE-24</t>
   </si>
   <si>
+    <t>MedicationRequest.dosageInstruction.doseAndRate.rate[x]:rateRatio</t>
+  </si>
+  <si>
+    <t>rateRatio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio {https://hl7.fr/fhir/fr/medication/StructureDefinition/FrRatioMedication}
+</t>
+  </si>
+  <si>
+    <t>Amount of medication per unit of time.</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.doseAndRate.rate[x]:rateRange</t>
+  </si>
+  <si>
+    <t>rateRange</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.doseAndRate.rate[x]:rateQuantity</t>
+  </si>
+  <si>
+    <t>rateQuantity</t>
+  </si>
+  <si>
     <t>MedicationRequest.dosageInstruction.maxDosePerPeriod</t>
   </si>
   <si>
@@ -2239,99 +2287,135 @@
     <t>RXO-23, RXE-19</t>
   </si>
   <si>
+    <t>MedicationRequest.dosageInstruction.maxDosePerPeriod.id</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.maxDosePerPeriod.extension</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.maxDosePerPeriod.numerator</t>
+  </si>
+  <si>
+    <t>Numerator value</t>
+  </si>
+  <si>
+    <t>The value of the numerator.</t>
+  </si>
+  <si>
+    <t>Ratio.numerator</t>
+  </si>
+  <si>
+    <t>.numerator</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.maxDosePerPeriod.denominator</t>
+  </si>
+  <si>
+    <t>Denominator value</t>
+  </si>
+  <si>
+    <t>The value of the denominator.</t>
+  </si>
+  <si>
+    <t>Ratio.denominator</t>
+  </si>
+  <si>
+    <t>.denominator</t>
+  </si>
+  <si>
     <t>MedicationRequest.dosageInstruction.maxDosePerAdministration</t>
+  </si>
+  <si>
+    <t>Upper limit on medication per administration</t>
+  </si>
+  <si>
+    <t>Upper limit on medication per administration.</t>
+  </si>
+  <si>
+    <t>This is intended for use as an adjunct to the dosage when there is an upper cap.  For example, a body surface area related dose with a maximum amount, such as 1.5 mg/m2 (maximum 2 mg) IV over 5 – 10 minutes would have doseQuantity of 1.5 mg/m2 and maxDosePerAdministration of 2 mg.</t>
+  </si>
+  <si>
+    <t>The maximum total quantity of a therapeutic substance that may be administered to a subject per administration.</t>
+  </si>
+  <si>
+    <t>Dosage.maxDosePerAdministration</t>
+  </si>
+  <si>
+    <t>not supported</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.maxDosePerLifetime</t>
+  </si>
+  <si>
+    <t>Upper limit on medication per lifetime of the patient</t>
+  </si>
+  <si>
+    <t>Upper limit on medication per lifetime of the patient.</t>
+  </si>
+  <si>
+    <t>The maximum total quantity of a therapeutic substance that may be administered per lifetime of the subject.</t>
+  </si>
+  <si>
+    <t>Dosage.maxDosePerLifetime</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dispenseRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Medication supply authorization</t>
+  </si>
+  <si>
+    <t>Indicates the specific details for the dispense or medication supply part of a medication request (also known as a Medication Prescription or Medication Order).  Note that this information is not always sent with the order.  There may be in some settings (e.g. hospitals) institutional or system support for completing the dispense details in the pharmacy department.</t>
+  </si>
+  <si>
+    <t>Message/Body/NewRx/MedicationPrescribed/ExpirationDate</t>
+  </si>
+  <si>
+    <t>component.supplyEvent</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dispenseRequest.id</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dispenseRequest.extension</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dispenseRequest.modifierExtension</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dispenseRequest.initialFill</t>
+  </si>
+  <si>
+    <t>First fill details</t>
+  </si>
+  <si>
+    <t>Indicates the quantity or duration for the first dispense of the medication.</t>
+  </si>
+  <si>
+    <t>If populating this element, either the quantity or the duration must be included.</t>
+  </si>
+  <si>
+    <t>SubstanceAdministration -&gt; ActRelationship[sequenceNumber = '1'] -&gt; Supply</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dispenseRequest.initialFill.id</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dispenseRequest.initialFill.extension</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dispenseRequest.initialFill.modifierExtension</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dispenseRequest.initialFill.quantity</t>
   </si>
   <si>
     <t xml:space="preserve">Quantity {SimpleQuantity}
 </t>
-  </si>
-  <si>
-    <t>Upper limit on medication per administration</t>
-  </si>
-  <si>
-    <t>Upper limit on medication per administration.</t>
-  </si>
-  <si>
-    <t>This is intended for use as an adjunct to the dosage when there is an upper cap.  For example, a body surface area related dose with a maximum amount, such as 1.5 mg/m2 (maximum 2 mg) IV over 5 – 10 minutes would have doseQuantity of 1.5 mg/m2 and maxDosePerAdministration of 2 mg.</t>
-  </si>
-  <si>
-    <t>The maximum total quantity of a therapeutic substance that may be administered to a subject per administration.</t>
-  </si>
-  <si>
-    <t>Dosage.maxDosePerAdministration</t>
-  </si>
-  <si>
-    <t>not supported</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dosageInstruction.maxDosePerLifetime</t>
-  </si>
-  <si>
-    <t>Upper limit on medication per lifetime of the patient</t>
-  </si>
-  <si>
-    <t>Upper limit on medication per lifetime of the patient.</t>
-  </si>
-  <si>
-    <t>The maximum total quantity of a therapeutic substance that may be administered per lifetime of the subject.</t>
-  </si>
-  <si>
-    <t>Dosage.maxDosePerLifetime</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dispenseRequest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Medication supply authorization</t>
-  </si>
-  <si>
-    <t>Indicates the specific details for the dispense or medication supply part of a medication request (also known as a Medication Prescription or Medication Order).  Note that this information is not always sent with the order.  There may be in some settings (e.g. hospitals) institutional or system support for completing the dispense details in the pharmacy department.</t>
-  </si>
-  <si>
-    <t>Message/Body/NewRx/MedicationPrescribed/ExpirationDate</t>
-  </si>
-  <si>
-    <t>component.supplyEvent</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dispenseRequest.id</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dispenseRequest.extension</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dispenseRequest.modifierExtension</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dispenseRequest.initialFill</t>
-  </si>
-  <si>
-    <t>First fill details</t>
-  </si>
-  <si>
-    <t>Indicates the quantity or duration for the first dispense of the medication.</t>
-  </si>
-  <si>
-    <t>If populating this element, either the quantity or the duration must be included.</t>
-  </si>
-  <si>
-    <t>SubstanceAdministration -&gt; ActRelationship[sequenceNumber = '1'] -&gt; Supply</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dispenseRequest.initialFill.id</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dispenseRequest.initialFill.extension</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dispenseRequest.initialFill.modifierExtension</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dispenseRequest.initialFill.quantity</t>
   </si>
   <si>
     <t>First fill quantity</t>
@@ -3083,7 +3167,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO142"/>
+  <dimension ref="A1:AO151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -14984,19 +15068,17 @@
         <v>20</v>
       </c>
       <c r="AB102" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="AC102" s="2"/>
       <c r="AD102" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>20</v>
+        <v>693</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>79</v>
@@ -15023,17 +15105,19 @@
         <v>20</v>
       </c>
       <c r="AO102" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>695</v>
-      </c>
-      <c r="C103" s="2"/>
+        <v>687</v>
+      </c>
+      <c r="C103" t="s" s="2">
+        <v>697</v>
+      </c>
       <c r="D103" t="s" s="2">
         <v>20</v>
       </c>
@@ -15054,19 +15138,19 @@
         <v>90</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>20</v>
@@ -15115,7 +15199,7 @@
         <v>20</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>79</v>
@@ -15136,23 +15220,25 @@
         <v>20</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>702</v>
+        <v>665</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO103" t="s" s="2">
-        <v>703</v>
+        <v>695</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>704</v>
-      </c>
-      <c r="C104" s="2"/>
+        <v>687</v>
+      </c>
+      <c r="C104" t="s" s="2">
+        <v>700</v>
+      </c>
       <c r="D104" t="s" s="2">
         <v>20</v>
       </c>
@@ -15173,19 +15259,19 @@
         <v>90</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>706</v>
+        <v>689</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>707</v>
+        <v>690</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>708</v>
+        <v>691</v>
       </c>
       <c r="O104" t="s" s="2">
-        <v>709</v>
+        <v>692</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>20</v>
@@ -15234,7 +15320,7 @@
         <v>20</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>710</v>
+        <v>694</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>79</v>
@@ -15255,21 +15341,21 @@
         <v>20</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>711</v>
+        <v>665</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO104" t="s" s="2">
-        <v>712</v>
+        <v>695</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>713</v>
+        <v>702</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>713</v>
+        <v>702</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15292,19 +15378,19 @@
         <v>90</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>714</v>
+        <v>703</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>715</v>
+        <v>704</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>716</v>
+        <v>705</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>717</v>
+        <v>706</v>
       </c>
       <c r="O105" t="s" s="2">
-        <v>718</v>
+        <v>707</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>20</v>
@@ -15341,19 +15427,17 @@
         <v>20</v>
       </c>
       <c r="AB105" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC105" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="AC105" s="2"/>
       <c r="AD105" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>20</v>
+        <v>693</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>719</v>
+        <v>708</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>79</v>
@@ -15374,23 +15458,25 @@
         <v>20</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>720</v>
+        <v>709</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO105" t="s" s="2">
-        <v>20</v>
+        <v>710</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>721</v>
-      </c>
-      <c r="C106" s="2"/>
+        <v>702</v>
+      </c>
+      <c r="C106" t="s" s="2">
+        <v>712</v>
+      </c>
       <c r="D106" t="s" s="2">
         <v>20</v>
       </c>
@@ -15411,17 +15497,19 @@
         <v>90</v>
       </c>
       <c r="K106" t="s" s="2">
+        <v>713</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>704</v>
+      </c>
+      <c r="M106" t="s" s="2">
         <v>714</v>
       </c>
-      <c r="L106" t="s" s="2">
-        <v>722</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>723</v>
-      </c>
-      <c r="N106" s="2"/>
+      <c r="N106" t="s" s="2">
+        <v>706</v>
+      </c>
       <c r="O106" t="s" s="2">
-        <v>724</v>
+        <v>707</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>20</v>
@@ -15470,7 +15558,7 @@
         <v>20</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>725</v>
+        <v>708</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>79</v>
@@ -15491,23 +15579,25 @@
         <v>20</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>720</v>
+        <v>709</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO106" t="s" s="2">
-        <v>20</v>
+        <v>710</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>726</v>
+        <v>715</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>726</v>
-      </c>
-      <c r="C107" s="2"/>
+        <v>702</v>
+      </c>
+      <c r="C107" t="s" s="2">
+        <v>716</v>
+      </c>
       <c r="D107" t="s" s="2">
         <v>20</v>
       </c>
@@ -15525,19 +15615,23 @@
         <v>20</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>727</v>
+        <v>698</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>728</v>
+        <v>704</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>729</v>
-      </c>
-      <c r="N107" s="2"/>
-      <c r="O107" s="2"/>
+        <v>714</v>
+      </c>
+      <c r="N107" t="s" s="2">
+        <v>706</v>
+      </c>
+      <c r="O107" t="s" s="2">
+        <v>707</v>
+      </c>
       <c r="P107" t="s" s="2">
         <v>20</v>
       </c>
@@ -15585,7 +15679,7 @@
         <v>20</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>726</v>
+        <v>708</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>79</v>
@@ -15603,26 +15697,28 @@
         <v>20</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>730</v>
+        <v>20</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>731</v>
+        <v>709</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO107" t="s" s="2">
-        <v>20</v>
+        <v>710</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>732</v>
+        <v>717</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>732</v>
-      </c>
-      <c r="C108" s="2"/>
+        <v>702</v>
+      </c>
+      <c r="C108" t="s" s="2">
+        <v>718</v>
+      </c>
       <c r="D108" t="s" s="2">
         <v>20</v>
       </c>
@@ -15640,19 +15736,23 @@
         <v>20</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>149</v>
+        <v>701</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>150</v>
+        <v>704</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N108" s="2"/>
-      <c r="O108" s="2"/>
+        <v>714</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>706</v>
+      </c>
+      <c r="O108" t="s" s="2">
+        <v>707</v>
+      </c>
       <c r="P108" t="s" s="2">
         <v>20</v>
       </c>
@@ -15700,7 +15800,7 @@
         <v>20</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>152</v>
+        <v>708</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>79</v>
@@ -15712,7 +15812,7 @@
         <v>20</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>20</v>
@@ -15721,32 +15821,32 @@
         <v>20</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>153</v>
+        <v>709</v>
       </c>
       <c r="AN108" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO108" t="s" s="2">
-        <v>20</v>
+        <v>710</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>733</v>
+        <v>719</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>733</v>
+        <v>719</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
-        <v>179</v>
+        <v>20</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G109" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H109" t="s" s="2">
         <v>20</v>
@@ -15755,21 +15855,23 @@
         <v>20</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>134</v>
+        <v>720</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>180</v>
+        <v>721</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>181</v>
+        <v>722</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="O109" s="2"/>
+        <v>723</v>
+      </c>
+      <c r="O109" t="s" s="2">
+        <v>724</v>
+      </c>
       <c r="P109" t="s" s="2">
         <v>20</v>
       </c>
@@ -15817,19 +15919,19 @@
         <v>20</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>157</v>
+        <v>725</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI109" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK109" t="s" s="2">
         <v>20</v>
@@ -15838,57 +15940,53 @@
         <v>20</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>153</v>
+        <v>726</v>
       </c>
       <c r="AN109" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO109" t="s" s="2">
-        <v>20</v>
+        <v>727</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
-        <v>476</v>
+        <v>20</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H110" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I110" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>477</v>
+        <v>150</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="O110" t="s" s="2">
-        <v>205</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="N110" s="2"/>
+      <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
         <v>20</v>
       </c>
@@ -15936,19 +16034,19 @@
         <v>20</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>479</v>
+        <v>152</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI110" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>20</v>
@@ -15957,7 +16055,7 @@
         <v>20</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="AN110" t="s" s="2">
         <v>20</v>
@@ -15968,21 +16066,21 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
-        <v>20</v>
+        <v>179</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H111" t="s" s="2">
         <v>20</v>
@@ -15994,16 +16092,16 @@
         <v>20</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>727</v>
+        <v>134</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>736</v>
+        <v>180</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>737</v>
+        <v>181</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>738</v>
+        <v>182</v>
       </c>
       <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
@@ -16041,31 +16139,31 @@
         <v>20</v>
       </c>
       <c r="AB111" t="s" s="2">
-        <v>20</v>
+        <v>137</v>
       </c>
       <c r="AC111" t="s" s="2">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="AD111" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>735</v>
+        <v>157</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK111" t="s" s="2">
         <v>20</v>
@@ -16074,7 +16172,7 @@
         <v>20</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>739</v>
+        <v>153</v>
       </c>
       <c r="AN111" t="s" s="2">
         <v>20</v>
@@ -16085,10 +16183,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -16108,16 +16206,16 @@
         <v>20</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>149</v>
+        <v>701</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>150</v>
+        <v>731</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>151</v>
+        <v>732</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -16168,7 +16266,7 @@
         <v>20</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>152</v>
+        <v>733</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>79</v>
@@ -16180,7 +16278,7 @@
         <v>20</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="AK112" t="s" s="2">
         <v>20</v>
@@ -16189,7 +16287,7 @@
         <v>20</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>153</v>
+        <v>734</v>
       </c>
       <c r="AN112" t="s" s="2">
         <v>20</v>
@@ -16200,21 +16298,21 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
-        <v>179</v>
+        <v>20</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G113" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H113" t="s" s="2">
         <v>20</v>
@@ -16223,20 +16321,18 @@
         <v>20</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>134</v>
+        <v>701</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>180</v>
+        <v>736</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>737</v>
+      </c>
+      <c r="N113" s="2"/>
       <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
         <v>20</v>
@@ -16285,19 +16381,19 @@
         <v>20</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>157</v>
+        <v>738</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH113" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI113" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK113" t="s" s="2">
         <v>20</v>
@@ -16306,7 +16402,7 @@
         <v>20</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>153</v>
+        <v>739</v>
       </c>
       <c r="AN113" t="s" s="2">
         <v>20</v>
@@ -16317,45 +16413,45 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
-        <v>476</v>
+        <v>20</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G114" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H114" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I114" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="J114" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>134</v>
+        <v>701</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>477</v>
+        <v>741</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>478</v>
+        <v>742</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>182</v>
+        <v>743</v>
       </c>
       <c r="O114" t="s" s="2">
-        <v>205</v>
+        <v>744</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>20</v>
@@ -16404,19 +16500,19 @@
         <v>20</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>479</v>
+        <v>745</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH114" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI114" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK114" t="s" s="2">
         <v>20</v>
@@ -16425,7 +16521,7 @@
         <v>20</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>132</v>
+        <v>746</v>
       </c>
       <c r="AN114" t="s" s="2">
         <v>20</v>
@@ -16436,10 +16532,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16459,19 +16555,21 @@
         <v>20</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>714</v>
+        <v>701</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="N115" s="2"/>
-      <c r="O115" s="2"/>
+      <c r="O115" t="s" s="2">
+        <v>750</v>
+      </c>
       <c r="P115" t="s" s="2">
         <v>20</v>
       </c>
@@ -16519,7 +16617,7 @@
         <v>20</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>743</v>
+        <v>751</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>79</v>
@@ -16551,10 +16649,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16577,13 +16675,13 @@
         <v>20</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" s="2"/>
@@ -16634,7 +16732,7 @@
         <v>20</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>79</v>
@@ -16652,10 +16750,10 @@
         <v>20</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>20</v>
+        <v>756</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>751</v>
+        <v>757</v>
       </c>
       <c r="AN116" t="s" s="2">
         <v>20</v>
@@ -16666,10 +16764,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>752</v>
+        <v>758</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>752</v>
+        <v>758</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16680,7 +16778,7 @@
         <v>79</v>
       </c>
       <c r="G117" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H117" t="s" s="2">
         <v>20</v>
@@ -16692,13 +16790,13 @@
         <v>20</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>748</v>
+        <v>149</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>753</v>
+        <v>150</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>754</v>
+        <v>151</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
@@ -16749,7 +16847,7 @@
         <v>20</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>752</v>
+        <v>152</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>79</v>
@@ -16761,7 +16859,7 @@
         <v>20</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="AK117" t="s" s="2">
         <v>20</v>
@@ -16770,7 +16868,7 @@
         <v>20</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>751</v>
+        <v>153</v>
       </c>
       <c r="AN117" t="s" s="2">
         <v>20</v>
@@ -16781,21 +16879,21 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
-        <v>20</v>
+        <v>179</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G118" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H118" t="s" s="2">
         <v>20</v>
@@ -16807,20 +16905,18 @@
         <v>20</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>756</v>
+        <v>134</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>757</v>
+        <v>180</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>758</v>
+        <v>181</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>759</v>
-      </c>
-      <c r="O118" t="s" s="2">
-        <v>760</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="O118" s="2"/>
       <c r="P118" t="s" s="2">
         <v>20</v>
       </c>
@@ -16868,28 +16964,28 @@
         <v>20</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>755</v>
+        <v>157</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH118" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI118" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK118" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>761</v>
+        <v>20</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>762</v>
+        <v>153</v>
       </c>
       <c r="AN118" t="s" s="2">
         <v>20</v>
@@ -16900,42 +16996,46 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
-        <v>20</v>
+        <v>476</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G119" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H119" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I119" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>150</v>
+        <v>477</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N119" s="2"/>
-      <c r="O119" s="2"/>
+        <v>478</v>
+      </c>
+      <c r="N119" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="O119" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="P119" t="s" s="2">
         <v>20</v>
       </c>
@@ -16983,19 +17083,19 @@
         <v>20</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>152</v>
+        <v>479</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH119" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI119" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="AK119" t="s" s="2">
         <v>20</v>
@@ -17004,7 +17104,7 @@
         <v>20</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="AN119" t="s" s="2">
         <v>20</v>
@@ -17015,21 +17115,21 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
-        <v>179</v>
+        <v>20</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G120" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H120" t="s" s="2">
         <v>20</v>
@@ -17041,16 +17141,16 @@
         <v>20</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>134</v>
+        <v>753</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>180</v>
+        <v>762</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>181</v>
+        <v>763</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>182</v>
+        <v>764</v>
       </c>
       <c r="O120" s="2"/>
       <c r="P120" t="s" s="2">
@@ -17088,31 +17188,31 @@
         <v>20</v>
       </c>
       <c r="AB120" t="s" s="2">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="AC120" t="s" s="2">
-        <v>156</v>
+        <v>20</v>
       </c>
       <c r="AD120" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>157</v>
+        <v>761</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH120" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI120" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK120" t="s" s="2">
         <v>20</v>
@@ -17121,7 +17221,7 @@
         <v>20</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>153</v>
+        <v>765</v>
       </c>
       <c r="AN120" t="s" s="2">
         <v>20</v>
@@ -17132,10 +17232,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -17143,7 +17243,7 @@
       </c>
       <c r="E121" s="2"/>
       <c r="F121" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G121" t="s" s="2">
         <v>89</v>
@@ -17155,20 +17255,18 @@
         <v>20</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>346</v>
+        <v>149</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>766</v>
+        <v>150</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>767</v>
-      </c>
-      <c r="N121" t="s" s="2">
-        <v>768</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="N121" s="2"/>
       <c r="O121" s="2"/>
       <c r="P121" t="s" s="2">
         <v>20</v>
@@ -17217,7 +17315,7 @@
         <v>20</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>769</v>
+        <v>152</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>79</v>
@@ -17226,10 +17324,10 @@
         <v>89</v>
       </c>
       <c r="AI121" t="s" s="2">
-        <v>770</v>
+        <v>20</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="AK121" t="s" s="2">
         <v>20</v>
@@ -17238,32 +17336,32 @@
         <v>20</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>771</v>
+        <v>153</v>
       </c>
       <c r="AN121" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO121" t="s" s="2">
-        <v>772</v>
+        <v>20</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
-        <v>20</v>
+        <v>179</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G122" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H122" t="s" s="2">
         <v>20</v>
@@ -17272,27 +17370,25 @@
         <v>20</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>346</v>
+        <v>134</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>774</v>
+        <v>180</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>775</v>
+        <v>181</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>776</v>
+        <v>182</v>
       </c>
       <c r="O122" s="2"/>
       <c r="P122" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="Q122" t="s" s="2">
-        <v>777</v>
-      </c>
+      <c r="Q122" s="2"/>
       <c r="R122" t="s" s="2">
         <v>20</v>
       </c>
@@ -17336,19 +17432,19 @@
         <v>20</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>778</v>
+        <v>157</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH122" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI122" t="s" s="2">
-        <v>770</v>
+        <v>20</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK122" t="s" s="2">
         <v>20</v>
@@ -17357,55 +17453,57 @@
         <v>20</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>779</v>
+        <v>153</v>
       </c>
       <c r="AN122" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO122" t="s" s="2">
-        <v>780</v>
+        <v>20</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>781</v>
+        <v>768</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>781</v>
+        <v>768</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
-        <v>20</v>
+        <v>476</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G123" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H123" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I123" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>617</v>
+        <v>134</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>782</v>
+        <v>477</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>783</v>
+        <v>478</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>784</v>
-      </c>
-      <c r="O123" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="O123" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="P123" t="s" s="2">
         <v>20</v>
       </c>
@@ -17453,42 +17551,42 @@
         <v>20</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>781</v>
+        <v>479</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH123" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI123" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK123" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>785</v>
+        <v>20</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>786</v>
+        <v>132</v>
       </c>
       <c r="AN123" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO123" t="s" s="2">
-        <v>787</v>
+        <v>20</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>788</v>
+        <v>769</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>788</v>
+        <v>769</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17499,7 +17597,7 @@
         <v>79</v>
       </c>
       <c r="G124" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H124" t="s" s="2">
         <v>20</v>
@@ -17511,13 +17609,13 @@
         <v>20</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>714</v>
+        <v>770</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>789</v>
+        <v>771</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>790</v>
+        <v>772</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" s="2"/>
@@ -17568,7 +17666,7 @@
         <v>20</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>788</v>
+        <v>769</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>79</v>
@@ -17586,24 +17684,24 @@
         <v>20</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>791</v>
+        <v>20</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>792</v>
+        <v>773</v>
       </c>
       <c r="AN124" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO124" t="s" s="2">
-        <v>793</v>
+        <v>20</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>794</v>
+        <v>774</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>794</v>
+        <v>774</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -17626,17 +17724,15 @@
         <v>20</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>748</v>
+        <v>775</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>795</v>
+        <v>776</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>796</v>
-      </c>
-      <c r="N125" t="s" s="2">
-        <v>797</v>
-      </c>
+        <v>777</v>
+      </c>
+      <c r="N125" s="2"/>
       <c r="O125" s="2"/>
       <c r="P125" t="s" s="2">
         <v>20</v>
@@ -17685,7 +17781,7 @@
         <v>20</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>794</v>
+        <v>774</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>79</v>
@@ -17703,10 +17799,10 @@
         <v>20</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>798</v>
+        <v>20</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>799</v>
+        <v>778</v>
       </c>
       <c r="AN125" t="s" s="2">
         <v>20</v>
@@ -17717,10 +17813,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>800</v>
+        <v>779</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>800</v>
+        <v>779</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -17731,7 +17827,7 @@
         <v>79</v>
       </c>
       <c r="G126" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H126" t="s" s="2">
         <v>20</v>
@@ -17743,13 +17839,13 @@
         <v>20</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>149</v>
+        <v>775</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>150</v>
+        <v>780</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>151</v>
+        <v>781</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" s="2"/>
@@ -17800,7 +17896,7 @@
         <v>20</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>152</v>
+        <v>779</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>79</v>
@@ -17812,7 +17908,7 @@
         <v>20</v>
       </c>
       <c r="AJ126" t="s" s="2">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="AK126" t="s" s="2">
         <v>20</v>
@@ -17821,7 +17917,7 @@
         <v>20</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>153</v>
+        <v>778</v>
       </c>
       <c r="AN126" t="s" s="2">
         <v>20</v>
@@ -17832,21 +17928,21 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>801</v>
+        <v>782</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>801</v>
+        <v>782</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
-        <v>179</v>
+        <v>20</v>
       </c>
       <c r="E127" s="2"/>
       <c r="F127" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G127" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H127" t="s" s="2">
         <v>20</v>
@@ -17858,18 +17954,20 @@
         <v>20</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>134</v>
+        <v>783</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>180</v>
+        <v>784</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>181</v>
+        <v>785</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="O127" s="2"/>
+        <v>786</v>
+      </c>
+      <c r="O127" t="s" s="2">
+        <v>787</v>
+      </c>
       <c r="P127" t="s" s="2">
         <v>20</v>
       </c>
@@ -17905,40 +18003,40 @@
         <v>20</v>
       </c>
       <c r="AB127" t="s" s="2">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="AC127" t="s" s="2">
-        <v>156</v>
+        <v>20</v>
       </c>
       <c r="AD127" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>157</v>
+        <v>782</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH127" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI127" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ127" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK127" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>20</v>
+        <v>788</v>
       </c>
       <c r="AM127" t="s" s="2">
-        <v>153</v>
+        <v>789</v>
       </c>
       <c r="AN127" t="s" s="2">
         <v>20</v>
@@ -17949,10 +18047,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>802</v>
+        <v>790</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>802</v>
+        <v>790</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -17972,23 +18070,19 @@
         <v>20</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>558</v>
+        <v>149</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>803</v>
+        <v>150</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>804</v>
-      </c>
-      <c r="N128" t="s" s="2">
-        <v>805</v>
-      </c>
-      <c r="O128" t="s" s="2">
-        <v>806</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="N128" s="2"/>
+      <c r="O128" s="2"/>
       <c r="P128" t="s" s="2">
         <v>20</v>
       </c>
@@ -18036,7 +18130,7 @@
         <v>20</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>807</v>
+        <v>152</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>79</v>
@@ -18048,7 +18142,7 @@
         <v>20</v>
       </c>
       <c r="AJ128" t="s" s="2">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="AK128" t="s" s="2">
         <v>20</v>
@@ -18057,61 +18151,59 @@
         <v>20</v>
       </c>
       <c r="AM128" t="s" s="2">
-        <v>808</v>
+        <v>153</v>
       </c>
       <c r="AN128" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO128" t="s" s="2">
-        <v>809</v>
+        <v>20</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>810</v>
+        <v>791</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>810</v>
+        <v>791</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
-        <v>20</v>
+        <v>179</v>
       </c>
       <c r="E129" s="2"/>
       <c r="F129" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G129" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H129" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I129" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>811</v>
+        <v>180</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>812</v>
-      </c>
-      <c r="N129" s="2"/>
-      <c r="O129" t="s" s="2">
-        <v>813</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="N129" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="O129" s="2"/>
       <c r="P129" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="Q129" t="s" s="2">
-        <v>814</v>
-      </c>
+      <c r="Q129" s="2"/>
       <c r="R129" t="s" s="2">
         <v>20</v>
       </c>
@@ -18131,43 +18223,43 @@
         <v>20</v>
       </c>
       <c r="X129" t="s" s="2">
-        <v>221</v>
+        <v>20</v>
       </c>
       <c r="Y129" t="s" s="2">
-        <v>815</v>
+        <v>20</v>
       </c>
       <c r="Z129" t="s" s="2">
-        <v>816</v>
+        <v>20</v>
       </c>
       <c r="AA129" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AB129" t="s" s="2">
-        <v>20</v>
+        <v>137</v>
       </c>
       <c r="AC129" t="s" s="2">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="AD129" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>817</v>
+        <v>157</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH129" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI129" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ129" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK129" t="s" s="2">
         <v>20</v>
@@ -18176,21 +18268,21 @@
         <v>20</v>
       </c>
       <c r="AM129" t="s" s="2">
-        <v>818</v>
+        <v>153</v>
       </c>
       <c r="AN129" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO129" t="s" s="2">
-        <v>819</v>
+        <v>20</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>820</v>
+        <v>792</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>820</v>
+        <v>792</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -18198,7 +18290,7 @@
       </c>
       <c r="E130" s="2"/>
       <c r="F130" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G130" t="s" s="2">
         <v>89</v>
@@ -18213,18 +18305,18 @@
         <v>90</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>149</v>
+        <v>346</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>821</v>
+        <v>793</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>822</v>
-      </c>
-      <c r="N130" s="2"/>
-      <c r="O130" t="s" s="2">
-        <v>823</v>
-      </c>
+        <v>794</v>
+      </c>
+      <c r="N130" t="s" s="2">
+        <v>795</v>
+      </c>
+      <c r="O130" s="2"/>
       <c r="P130" t="s" s="2">
         <v>20</v>
       </c>
@@ -18272,7 +18364,7 @@
         <v>20</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>824</v>
+        <v>796</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>79</v>
@@ -18281,7 +18373,7 @@
         <v>89</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>20</v>
+        <v>797</v>
       </c>
       <c r="AJ130" t="s" s="2">
         <v>101</v>
@@ -18293,21 +18385,21 @@
         <v>20</v>
       </c>
       <c r="AM130" t="s" s="2">
-        <v>825</v>
+        <v>798</v>
       </c>
       <c r="AN130" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO130" t="s" s="2">
-        <v>826</v>
+        <v>799</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>827</v>
+        <v>800</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>827</v>
+        <v>800</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -18330,22 +18422,24 @@
         <v>90</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>103</v>
+        <v>346</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>828</v>
+        <v>801</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>829</v>
-      </c>
-      <c r="N131" s="2"/>
-      <c r="O131" t="s" s="2">
-        <v>830</v>
-      </c>
+        <v>802</v>
+      </c>
+      <c r="N131" t="s" s="2">
+        <v>803</v>
+      </c>
+      <c r="O131" s="2"/>
       <c r="P131" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="Q131" s="2"/>
+      <c r="Q131" t="s" s="2">
+        <v>804</v>
+      </c>
       <c r="R131" t="s" s="2">
         <v>20</v>
       </c>
@@ -18389,7 +18483,7 @@
         <v>20</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>831</v>
+        <v>805</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>79</v>
@@ -18398,7 +18492,7 @@
         <v>89</v>
       </c>
       <c r="AI131" t="s" s="2">
-        <v>832</v>
+        <v>797</v>
       </c>
       <c r="AJ131" t="s" s="2">
         <v>101</v>
@@ -18410,21 +18504,21 @@
         <v>20</v>
       </c>
       <c r="AM131" t="s" s="2">
-        <v>833</v>
+        <v>806</v>
       </c>
       <c r="AN131" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO131" t="s" s="2">
-        <v>826</v>
+        <v>807</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>834</v>
+        <v>808</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>834</v>
+        <v>808</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -18444,23 +18538,21 @@
         <v>20</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>109</v>
+        <v>617</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>835</v>
+        <v>809</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>836</v>
+        <v>810</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>837</v>
-      </c>
-      <c r="O132" t="s" s="2">
-        <v>838</v>
-      </c>
+        <v>811</v>
+      </c>
+      <c r="O132" s="2"/>
       <c r="P132" t="s" s="2">
         <v>20</v>
       </c>
@@ -18508,7 +18600,7 @@
         <v>20</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>839</v>
+        <v>808</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>79</v>
@@ -18526,24 +18618,24 @@
         <v>20</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>20</v>
+        <v>812</v>
       </c>
       <c r="AM132" t="s" s="2">
-        <v>840</v>
+        <v>813</v>
       </c>
       <c r="AN132" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO132" t="s" s="2">
-        <v>826</v>
+        <v>814</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>841</v>
+        <v>815</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>841</v>
+        <v>815</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -18566,13 +18658,13 @@
         <v>20</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>842</v>
+        <v>770</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>843</v>
+        <v>816</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>844</v>
+        <v>817</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" s="2"/>
@@ -18623,7 +18715,7 @@
         <v>20</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>841</v>
+        <v>815</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>79</v>
@@ -18641,24 +18733,24 @@
         <v>20</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>20</v>
+        <v>818</v>
       </c>
       <c r="AM133" t="s" s="2">
-        <v>845</v>
+        <v>819</v>
       </c>
       <c r="AN133" t="s" s="2">
-        <v>380</v>
+        <v>20</v>
       </c>
       <c r="AO133" t="s" s="2">
-        <v>20</v>
+        <v>820</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>846</v>
+        <v>821</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>846</v>
+        <v>821</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -18681,15 +18773,17 @@
         <v>20</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>727</v>
+        <v>775</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>847</v>
+        <v>822</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>848</v>
-      </c>
-      <c r="N134" s="2"/>
+        <v>823</v>
+      </c>
+      <c r="N134" t="s" s="2">
+        <v>824</v>
+      </c>
       <c r="O134" s="2"/>
       <c r="P134" t="s" s="2">
         <v>20</v>
@@ -18738,7 +18832,7 @@
         <v>20</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>846</v>
+        <v>821</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>79</v>
@@ -18756,10 +18850,10 @@
         <v>20</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>849</v>
+        <v>825</v>
       </c>
       <c r="AM134" t="s" s="2">
-        <v>850</v>
+        <v>826</v>
       </c>
       <c r="AN134" t="s" s="2">
         <v>20</v>
@@ -18770,10 +18864,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>851</v>
+        <v>827</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>851</v>
+        <v>827</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -18885,10 +18979,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>852</v>
+        <v>828</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>852</v>
+        <v>828</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -18958,16 +19052,16 @@
         <v>20</v>
       </c>
       <c r="AB136" t="s" s="2">
-        <v>20</v>
+        <v>137</v>
       </c>
       <c r="AC136" t="s" s="2">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="AD136" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>157</v>
@@ -19002,45 +19096,45 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>853</v>
+        <v>829</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>853</v>
+        <v>829</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
-        <v>476</v>
+        <v>20</v>
       </c>
       <c r="E137" s="2"/>
       <c r="F137" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G137" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H137" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I137" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="J137" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>134</v>
+        <v>558</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>477</v>
+        <v>830</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>478</v>
+        <v>831</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>182</v>
+        <v>832</v>
       </c>
       <c r="O137" t="s" s="2">
-        <v>205</v>
+        <v>833</v>
       </c>
       <c r="P137" t="s" s="2">
         <v>20</v>
@@ -19089,19 +19183,19 @@
         <v>20</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>479</v>
+        <v>834</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH137" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI137" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ137" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK137" t="s" s="2">
         <v>20</v>
@@ -19110,21 +19204,21 @@
         <v>20</v>
       </c>
       <c r="AM137" t="s" s="2">
-        <v>132</v>
+        <v>835</v>
       </c>
       <c r="AN137" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO137" t="s" s="2">
-        <v>20</v>
+        <v>836</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>854</v>
+        <v>837</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>854</v>
+        <v>837</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -19132,37 +19226,39 @@
       </c>
       <c r="E138" s="2"/>
       <c r="F138" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G138" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H138" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I138" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>631</v>
+        <v>109</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>855</v>
+        <v>838</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>856</v>
-      </c>
-      <c r="N138" t="s" s="2">
-        <v>857</v>
-      </c>
-      <c r="O138" s="2"/>
+        <v>839</v>
+      </c>
+      <c r="N138" s="2"/>
+      <c r="O138" t="s" s="2">
+        <v>840</v>
+      </c>
       <c r="P138" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="Q138" s="2"/>
+      <c r="Q138" t="s" s="2">
+        <v>841</v>
+      </c>
       <c r="R138" t="s" s="2">
         <v>20</v>
       </c>
@@ -19182,13 +19278,13 @@
         <v>20</v>
       </c>
       <c r="X138" t="s" s="2">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="Y138" t="s" s="2">
-        <v>858</v>
+        <v>842</v>
       </c>
       <c r="Z138" t="s" s="2">
-        <v>859</v>
+        <v>843</v>
       </c>
       <c r="AA138" t="s" s="2">
         <v>20</v>
@@ -19206,10 +19302,10 @@
         <v>20</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>854</v>
+        <v>844</v>
       </c>
       <c r="AG138" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH138" t="s" s="2">
         <v>89</v>
@@ -19224,24 +19320,24 @@
         <v>20</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>849</v>
+        <v>20</v>
       </c>
       <c r="AM138" t="s" s="2">
-        <v>860</v>
+        <v>845</v>
       </c>
       <c r="AN138" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO138" t="s" s="2">
-        <v>861</v>
+        <v>846</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>862</v>
+        <v>847</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>862</v>
+        <v>847</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -19261,19 +19357,21 @@
         <v>20</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>863</v>
+        <v>848</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>864</v>
+        <v>849</v>
       </c>
       <c r="N139" s="2"/>
-      <c r="O139" s="2"/>
+      <c r="O139" t="s" s="2">
+        <v>850</v>
+      </c>
       <c r="P139" t="s" s="2">
         <v>20</v>
       </c>
@@ -19297,13 +19395,13 @@
         <v>20</v>
       </c>
       <c r="X139" t="s" s="2">
-        <v>232</v>
+        <v>20</v>
       </c>
       <c r="Y139" t="s" s="2">
-        <v>865</v>
+        <v>20</v>
       </c>
       <c r="Z139" t="s" s="2">
-        <v>866</v>
+        <v>20</v>
       </c>
       <c r="AA139" t="s" s="2">
         <v>20</v>
@@ -19321,7 +19419,7 @@
         <v>20</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>862</v>
+        <v>851</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>79</v>
@@ -19339,24 +19437,24 @@
         <v>20</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>867</v>
+        <v>20</v>
       </c>
       <c r="AM139" t="s" s="2">
-        <v>868</v>
+        <v>852</v>
       </c>
       <c r="AN139" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO139" t="s" s="2">
-        <v>869</v>
+        <v>853</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>870</v>
+        <v>854</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>870</v>
+        <v>854</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -19376,19 +19474,21 @@
         <v>20</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>871</v>
+        <v>103</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>872</v>
+        <v>855</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>873</v>
+        <v>856</v>
       </c>
       <c r="N140" s="2"/>
-      <c r="O140" s="2"/>
+      <c r="O140" t="s" s="2">
+        <v>857</v>
+      </c>
       <c r="P140" t="s" s="2">
         <v>20</v>
       </c>
@@ -19436,7 +19536,7 @@
         <v>20</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>870</v>
+        <v>858</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>79</v>
@@ -19445,44 +19545,44 @@
         <v>89</v>
       </c>
       <c r="AI140" t="s" s="2">
-        <v>20</v>
+        <v>859</v>
       </c>
       <c r="AJ140" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK140" t="s" s="2">
-        <v>874</v>
+        <v>20</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>867</v>
+        <v>20</v>
       </c>
       <c r="AM140" t="s" s="2">
-        <v>875</v>
+        <v>860</v>
       </c>
       <c r="AN140" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO140" t="s" s="2">
-        <v>20</v>
+        <v>853</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>876</v>
+        <v>861</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>876</v>
+        <v>861</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
-        <v>877</v>
+        <v>20</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G141" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H141" t="s" s="2">
         <v>20</v>
@@ -19491,21 +19591,23 @@
         <v>20</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>878</v>
+        <v>109</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>879</v>
+        <v>862</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>880</v>
+        <v>863</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>881</v>
-      </c>
-      <c r="O141" s="2"/>
+        <v>864</v>
+      </c>
+      <c r="O141" t="s" s="2">
+        <v>865</v>
+      </c>
       <c r="P141" t="s" s="2">
         <v>20</v>
       </c>
@@ -19553,13 +19655,13 @@
         <v>20</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>876</v>
+        <v>866</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH141" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI141" t="s" s="2">
         <v>20</v>
@@ -19574,21 +19676,21 @@
         <v>20</v>
       </c>
       <c r="AM141" t="s" s="2">
-        <v>882</v>
+        <v>867</v>
       </c>
       <c r="AN141" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO141" t="s" s="2">
-        <v>20</v>
+        <v>853</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>883</v>
+        <v>868</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>883</v>
+        <v>868</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -19599,7 +19701,7 @@
         <v>79</v>
       </c>
       <c r="G142" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H142" t="s" s="2">
         <v>20</v>
@@ -19611,17 +19713,15 @@
         <v>20</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>884</v>
+        <v>869</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>885</v>
+        <v>870</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>886</v>
-      </c>
-      <c r="N142" t="s" s="2">
-        <v>887</v>
-      </c>
+        <v>871</v>
+      </c>
+      <c r="N142" s="2"/>
       <c r="O142" s="2"/>
       <c r="P142" t="s" s="2">
         <v>20</v>
@@ -19670,13 +19770,13 @@
         <v>20</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>883</v>
+        <v>868</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH142" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI142" t="s" s="2">
         <v>20</v>
@@ -19685,18 +19785,1065 @@
         <v>101</v>
       </c>
       <c r="AK142" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL142" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM142" t="s" s="2">
+        <v>872</v>
+      </c>
+      <c r="AN142" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AO142" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s" s="2">
+        <v>873</v>
+      </c>
+      <c r="B143" t="s" s="2">
+        <v>873</v>
+      </c>
+      <c r="C143" s="2"/>
+      <c r="D143" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E143" s="2"/>
+      <c r="F143" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G143" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H143" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I143" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J143" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K143" t="s" s="2">
+        <v>753</v>
+      </c>
+      <c r="L143" t="s" s="2">
+        <v>874</v>
+      </c>
+      <c r="M143" t="s" s="2">
+        <v>875</v>
+      </c>
+      <c r="N143" s="2"/>
+      <c r="O143" s="2"/>
+      <c r="P143" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q143" s="2"/>
+      <c r="R143" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S143" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T143" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U143" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V143" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W143" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X143" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y143" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z143" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA143" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB143" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC143" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD143" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE143" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF143" t="s" s="2">
+        <v>873</v>
+      </c>
+      <c r="AG143" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH143" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI143" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ143" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK143" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL143" t="s" s="2">
+        <v>876</v>
+      </c>
+      <c r="AM143" t="s" s="2">
+        <v>877</v>
+      </c>
+      <c r="AN143" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO143" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s" s="2">
+        <v>878</v>
+      </c>
+      <c r="B144" t="s" s="2">
+        <v>878</v>
+      </c>
+      <c r="C144" s="2"/>
+      <c r="D144" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E144" s="2"/>
+      <c r="F144" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G144" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H144" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I144" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J144" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K144" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="L144" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="M144" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="N144" s="2"/>
+      <c r="O144" s="2"/>
+      <c r="P144" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q144" s="2"/>
+      <c r="R144" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S144" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T144" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U144" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V144" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W144" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X144" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y144" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z144" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA144" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB144" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC144" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD144" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE144" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF144" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AG144" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH144" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI144" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ144" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK144" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL144" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM144" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AN144" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO144" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s" s="2">
+        <v>879</v>
+      </c>
+      <c r="B145" t="s" s="2">
+        <v>879</v>
+      </c>
+      <c r="C145" s="2"/>
+      <c r="D145" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="E145" s="2"/>
+      <c r="F145" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G145" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H145" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I145" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J145" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K145" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L145" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="M145" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="N145" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="O145" s="2"/>
+      <c r="P145" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q145" s="2"/>
+      <c r="R145" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S145" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T145" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U145" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V145" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W145" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X145" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y145" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z145" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA145" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB145" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC145" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD145" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE145" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF145" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AG145" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH145" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI145" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ145" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK145" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL145" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM145" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AN145" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO145" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s" s="2">
+        <v>880</v>
+      </c>
+      <c r="B146" t="s" s="2">
+        <v>880</v>
+      </c>
+      <c r="C146" s="2"/>
+      <c r="D146" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="E146" s="2"/>
+      <c r="F146" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G146" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H146" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I146" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J146" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K146" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L146" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="M146" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="N146" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="O146" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="P146" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q146" s="2"/>
+      <c r="R146" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S146" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T146" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U146" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V146" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W146" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X146" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y146" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z146" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA146" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB146" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC146" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD146" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE146" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF146" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AG146" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH146" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI146" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ146" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK146" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL146" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM146" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AN146" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO146" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s" s="2">
+        <v>881</v>
+      </c>
+      <c r="B147" t="s" s="2">
+        <v>881</v>
+      </c>
+      <c r="C147" s="2"/>
+      <c r="D147" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E147" s="2"/>
+      <c r="F147" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G147" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H147" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I147" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J147" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K147" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="L147" t="s" s="2">
+        <v>882</v>
+      </c>
+      <c r="M147" t="s" s="2">
+        <v>883</v>
+      </c>
+      <c r="N147" t="s" s="2">
+        <v>884</v>
+      </c>
+      <c r="O147" s="2"/>
+      <c r="P147" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q147" s="2"/>
+      <c r="R147" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S147" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T147" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U147" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V147" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W147" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X147" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="Y147" t="s" s="2">
+        <v>885</v>
+      </c>
+      <c r="Z147" t="s" s="2">
+        <v>886</v>
+      </c>
+      <c r="AA147" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB147" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC147" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD147" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE147" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF147" t="s" s="2">
+        <v>881</v>
+      </c>
+      <c r="AG147" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH147" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI147" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ147" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK147" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL147" t="s" s="2">
+        <v>876</v>
+      </c>
+      <c r="AM147" t="s" s="2">
+        <v>887</v>
+      </c>
+      <c r="AN147" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO147" t="s" s="2">
         <v>888</v>
       </c>
-      <c r="AL142" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM142" t="s" s="2">
+    </row>
+    <row r="148">
+      <c r="A148" t="s" s="2">
         <v>889</v>
       </c>
-      <c r="AN142" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO142" t="s" s="2">
+      <c r="B148" t="s" s="2">
+        <v>889</v>
+      </c>
+      <c r="C148" s="2"/>
+      <c r="D148" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E148" s="2"/>
+      <c r="F148" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G148" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H148" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I148" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J148" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K148" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L148" t="s" s="2">
+        <v>890</v>
+      </c>
+      <c r="M148" t="s" s="2">
+        <v>891</v>
+      </c>
+      <c r="N148" s="2"/>
+      <c r="O148" s="2"/>
+      <c r="P148" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q148" s="2"/>
+      <c r="R148" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S148" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T148" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U148" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V148" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W148" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X148" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="Y148" t="s" s="2">
+        <v>892</v>
+      </c>
+      <c r="Z148" t="s" s="2">
+        <v>893</v>
+      </c>
+      <c r="AA148" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB148" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC148" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD148" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE148" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF148" t="s" s="2">
+        <v>889</v>
+      </c>
+      <c r="AG148" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH148" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI148" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ148" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK148" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL148" t="s" s="2">
+        <v>894</v>
+      </c>
+      <c r="AM148" t="s" s="2">
+        <v>895</v>
+      </c>
+      <c r="AN148" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO148" t="s" s="2">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s" s="2">
+        <v>897</v>
+      </c>
+      <c r="B149" t="s" s="2">
+        <v>897</v>
+      </c>
+      <c r="C149" s="2"/>
+      <c r="D149" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E149" s="2"/>
+      <c r="F149" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G149" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H149" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I149" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J149" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K149" t="s" s="2">
+        <v>898</v>
+      </c>
+      <c r="L149" t="s" s="2">
+        <v>899</v>
+      </c>
+      <c r="M149" t="s" s="2">
+        <v>900</v>
+      </c>
+      <c r="N149" s="2"/>
+      <c r="O149" s="2"/>
+      <c r="P149" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q149" s="2"/>
+      <c r="R149" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S149" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T149" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U149" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V149" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W149" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X149" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y149" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z149" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA149" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB149" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC149" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD149" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE149" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF149" t="s" s="2">
+        <v>897</v>
+      </c>
+      <c r="AG149" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH149" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI149" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ149" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK149" t="s" s="2">
+        <v>901</v>
+      </c>
+      <c r="AL149" t="s" s="2">
+        <v>894</v>
+      </c>
+      <c r="AM149" t="s" s="2">
+        <v>902</v>
+      </c>
+      <c r="AN149" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO149" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s" s="2">
+        <v>903</v>
+      </c>
+      <c r="B150" t="s" s="2">
+        <v>903</v>
+      </c>
+      <c r="C150" s="2"/>
+      <c r="D150" t="s" s="2">
+        <v>904</v>
+      </c>
+      <c r="E150" s="2"/>
+      <c r="F150" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G150" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H150" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I150" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J150" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K150" t="s" s="2">
+        <v>905</v>
+      </c>
+      <c r="L150" t="s" s="2">
+        <v>906</v>
+      </c>
+      <c r="M150" t="s" s="2">
+        <v>907</v>
+      </c>
+      <c r="N150" t="s" s="2">
+        <v>908</v>
+      </c>
+      <c r="O150" s="2"/>
+      <c r="P150" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q150" s="2"/>
+      <c r="R150" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S150" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T150" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U150" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V150" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W150" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X150" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y150" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z150" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA150" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB150" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC150" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD150" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE150" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF150" t="s" s="2">
+        <v>903</v>
+      </c>
+      <c r="AG150" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH150" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI150" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ150" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK150" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL150" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM150" t="s" s="2">
+        <v>909</v>
+      </c>
+      <c r="AN150" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO150" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s" s="2">
+        <v>910</v>
+      </c>
+      <c r="B151" t="s" s="2">
+        <v>910</v>
+      </c>
+      <c r="C151" s="2"/>
+      <c r="D151" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E151" s="2"/>
+      <c r="F151" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G151" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H151" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I151" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J151" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K151" t="s" s="2">
+        <v>911</v>
+      </c>
+      <c r="L151" t="s" s="2">
+        <v>912</v>
+      </c>
+      <c r="M151" t="s" s="2">
+        <v>913</v>
+      </c>
+      <c r="N151" t="s" s="2">
+        <v>914</v>
+      </c>
+      <c r="O151" s="2"/>
+      <c r="P151" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q151" s="2"/>
+      <c r="R151" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S151" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T151" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U151" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V151" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W151" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X151" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y151" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z151" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA151" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB151" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC151" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD151" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE151" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF151" t="s" s="2">
+        <v>910</v>
+      </c>
+      <c r="AG151" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH151" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI151" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ151" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK151" t="s" s="2">
+        <v>915</v>
+      </c>
+      <c r="AL151" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM151" t="s" s="2">
+        <v>916</v>
+      </c>
+      <c r="AN151" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO151" t="s" s="2">
         <v>20</v>
       </c>
     </row>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-10T12:28:22+00:00</t>
+    <t>2025-04-10T13:04:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-10T13:04:19+00:00</t>
+    <t>2025-04-10T13:16:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-10T13:16:38+00:00</t>
+    <t>2025-04-10T13:34:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-10T13:34:50+00:00</t>
+    <t>2025-04-11T07:36:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-11T07:36:18+00:00</t>
+    <t>2025-04-12T14:29:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-12T14:29:05+00:00</t>
+    <t>2025-04-14T11:52:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T11:52:10+00:00</t>
+    <t>2025-04-14T12:50:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T12:50:20+00:00</t>
+    <t>2025-04-14T13:17:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T13:53:40+00:00</t>
+    <t>2025-04-14T14:45:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T14:45:12+00:00</t>
+    <t>2025-04-14T15:18:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T15:18:15+00:00</t>
+    <t>2025-04-14T15:39:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T15:39:56+00:00</t>
+    <t>2025-04-14T16:50:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T16:50:44+00:00</t>
+    <t>2025-04-14T17:04:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T17:04:46+00:00</t>
+    <t>2025-04-15T06:58:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-15T06:58:45+00:00</t>
+    <t>2025-04-15T07:12:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-15T07:12:06+00:00</t>
+    <t>2025-04-15T07:37:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-15T07:37:51+00:00</t>
+    <t>2025-04-15T07:52:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-15T07:52:12+00:00</t>
+    <t>2025-04-15T15:09:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-15T15:09:09+00:00</t>
+    <t>2025-04-16T14:17:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-16T14:17:39+00:00</t>
+    <t>2025-04-24T15:43:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3173,17 +3173,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="80.74609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="69.44921875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="23.1953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="16.11328125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="69.22265625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="59.5390625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="19.8828125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="13.8125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="154.42578125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="132.39453125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3192,27 +3192,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="198.02734375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="71.296875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="59.37890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="169.7734375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="61.125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="50.90625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="128.41796875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="245.42578125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="110.09375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-25T13:21:13+00:00</t>
+    <t>2025-04-30T11:20:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
